--- a/proy_prueba/proy_files/DB.xlsx
+++ b/proy_prueba/proy_files/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9602,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4620EF-E534-43A2-B37F-59F6F8CCC8B6}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10080,6 +10080,10 @@
       <c r="G15" s="15">
         <v>10</v>
       </c>
+      <c r="I15">
+        <f>96/12</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
@@ -10102,6 +10106,10 @@
       </c>
       <c r="G16" s="15">
         <v>10</v>
+      </c>
+      <c r="I16">
+        <f>I15/21*60</f>
+        <v>22.857142857142854</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12475,8 +12483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C443F7A-E822-4804-97E7-F39A03E7855F}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/proy_prueba/proy_files/DB.xlsx
+++ b/proy_prueba/proy_files/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1083,11 +1083,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="15">
-        <f>2*C2</f>
-        <v>2</v>
+        <f>C2</f>
+        <v>1</v>
       </c>
       <c r="E2" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>104</v>
@@ -1113,11 +1113,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D3:D13" si="0">2*C3</f>
-        <v>4</v>
+        <f t="shared" ref="D3:D13" si="0">C3</f>
+        <v>2</v>
       </c>
       <c r="E3" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>104</v>
@@ -1144,10 +1144,10 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>104</v>
@@ -1174,10 +1174,10 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>104</v>
@@ -1204,10 +1204,10 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>104</v>
@@ -1234,10 +1234,10 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>104</v>
@@ -1264,10 +1264,10 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>104</v>
@@ -1294,10 +1294,10 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="E9" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
@@ -1324,10 +1324,10 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
@@ -1354,10 +1354,10 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E11" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>104</v>
@@ -1384,10 +1384,10 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>104</v>
@@ -1414,10 +1414,10 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E13" s="25">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>104</v>
@@ -9602,7 +9602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4620EF-E534-43A2-B37F-59F6F8CCC8B6}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
@@ -12339,7 +12339,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/proy_prueba/proy_files/DB.xlsx
+++ b/proy_prueba/proy_files/DB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="115">
   <si>
     <t>Nombre</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Residencia Acalis - Errazuriz</t>
   </si>
   <si>
-    <t>Costo</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -319,31 +316,16 @@
     <t>XU</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Clinica Alemana SF</t>
   </si>
   <si>
     <t>Clinica Alemana PED</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>CB</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Sub Especialidad</t>
   </si>
   <si>
     <t>AE</t>
@@ -389,18 +371,6 @@
   </si>
   <si>
     <t>lejano</t>
-  </si>
-  <si>
-    <t>Condicion</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Max Supervision</t>
@@ -1030,7 +1000,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1060,13 +1030,13 @@
         <v>60</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>54</v>
@@ -1074,7 +1044,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>10</v>
@@ -1083,28 +1053,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="15">
-        <f>C2</f>
+        <f>_xlfn.CEILING.MATH(0.3*C2,1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>20</v>
@@ -1113,28 +1083,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D3:D13" si="0">C3</f>
-        <v>2</v>
+        <f t="shared" ref="D3:D13" si="0">_xlfn.CEILING.MATH(0.3*C3,1)</f>
+        <v>1</v>
       </c>
       <c r="E3" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>10</v>
@@ -1144,27 +1114,27 @@
       </c>
       <c r="D4" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>23</v>
@@ -1177,24 +1147,24 @@
         <v>1</v>
       </c>
       <c r="E5" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>20</v>
@@ -1204,27 +1174,27 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>23</v>
@@ -1234,27 +1204,27 @@
       </c>
       <c r="D7" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>23</v>
@@ -1264,27 +1234,27 @@
       </c>
       <c r="D8" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -1294,27 +1264,27 @@
       </c>
       <c r="D9" s="15">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>38</v>
@@ -1324,27 +1294,27 @@
       </c>
       <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>38</v>
@@ -1354,27 +1324,27 @@
       </c>
       <c r="D11" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>10</v>
@@ -1384,27 +1354,27 @@
       </c>
       <c r="D12" s="15">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>10</v>
@@ -1414,13 +1384,13 @@
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E13" s="15">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G13" s="25">
         <v>0</v>
@@ -1429,36 +1399,36 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1899,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2059,7 +2029,7 @@
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -3485,7 +3455,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -3615,7 +3585,7 @@
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -5041,7 +5011,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -5171,7 +5141,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -6171,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6503,7 +6473,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -6603,7 +6573,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -7707,7 +7677,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -7807,7 +7777,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -8771,7 +8741,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -8826,7 +8796,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -9289,7 +9259,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>10</v>
@@ -9302,12 +9272,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>20</v>
@@ -9320,12 +9290,12 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>10</v>
@@ -9338,12 +9308,12 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>23</v>
@@ -9356,12 +9326,12 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>20</v>
@@ -9374,12 +9344,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>23</v>
@@ -9392,12 +9362,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>23</v>
@@ -9410,12 +9380,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -9428,12 +9398,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>38</v>
@@ -9446,12 +9416,12 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>38</v>
@@ -9464,12 +9434,12 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>10</v>
@@ -9482,15 +9452,15 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -9500,12 +9470,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>10</v>
@@ -9516,12 +9486,12 @@
       <c r="D14" s="15"/>
       <c r="E14" s="25"/>
       <c r="F14" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>10</v>
@@ -9536,12 +9506,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>10</v>
@@ -9554,12 +9524,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>10</v>
@@ -9572,12 +9542,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>10</v>
@@ -9590,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9600,10 +9570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4620EF-E534-43A2-B37F-59F6F8CCC8B6}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9618,7 +9588,7 @@
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9626,513 +9596,510 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <f>_xlfn.CEILING.MATH(0.3*C2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <f>2*D2</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <f ca="1">SUMIF($B$2:$C$17,$I2,D$2:D$17)</f>
-        <v>47.5</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K6" ca="1" si="0">SUMIF($B$2:$C$17,$I2,E$2:E$17)</f>
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <f ca="1">SUM(J2:K2)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>104</v>
+      <c r="C3" s="15">
+        <v>2</v>
       </c>
       <c r="D3" s="15">
+        <f t="shared" ref="D3:D13" si="0">_xlfn.CEILING.MATH(0.3*C3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E3" s="15">
-        <f>2*D3+20</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="15">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J6" ca="1" si="1">SUMIF($B$2:$C$17,$I3,D$2:D$17)</f>
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <f ca="1">SUM(J3:K3)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="15">
-        <v>5</v>
-      </c>
-      <c r="E4" s="15">
-        <f>2*D4</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="15">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <f ca="1">SUM(J4:K4)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>31</v>
+      <c r="C5" s="15">
+        <v>1</v>
       </c>
       <c r="D5" s="15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="15">
-        <f t="shared" ref="E5:E12" si="2">2*D5</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="15">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L5">
-        <f ca="1">SUM(J5:K5)</f>
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>104</v>
+      <c r="C6" s="15">
+        <v>6</v>
       </c>
       <c r="D6" s="15">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E6" s="15">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F6" s="15">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <f ca="1">SUM(J6:K6)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>31</v>
+      <c r="C7" s="15">
+        <v>8</v>
       </c>
       <c r="D7" s="15">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E7" s="15">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F7" s="15">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>31</v>
+      <c r="C8" s="15">
+        <v>8</v>
       </c>
       <c r="D8" s="15">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F8" s="15">
-        <v>5</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>31</v>
+      <c r="C9" s="15">
+        <v>5.5</v>
       </c>
       <c r="D9" s="15">
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F9" s="15">
-        <v>5</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>104</v>
+      <c r="C10" s="15">
+        <v>5</v>
       </c>
       <c r="D10" s="15">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E10" s="15">
-        <f>2*D10+20</f>
-        <v>30</v>
-      </c>
-      <c r="F10" s="15">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>104</v>
+      <c r="C11" s="15">
+        <v>8</v>
       </c>
       <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="15">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>SUMIF($B$2:$B$14,$A17,C$2:C$14)</f>
+        <v>22.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C21" si="1">SUMIF($B$2:$B$14,$A17,D$2:D$14)</f>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f>SUM(B17:C17)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:C18" si="2">SUMIF($B$2:$B$14,$A18,C$2:C$14)</f>
         <v>8</v>
       </c>
-      <c r="E11" s="15">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F11" s="15">
-        <v>5</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="2"/>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="15">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="15">
-        <v>15</v>
-      </c>
-      <c r="E13" s="15">
-        <f>10*D13</f>
-        <v>150</v>
-      </c>
-      <c r="F13" s="25">
-        <v>5</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="15">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="15">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <f>96/12</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="15">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <f>I15/21*60</f>
-        <v>22.857142857142854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>10</v>
+      <c r="D18">
+        <f>SUM(B18:C18)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:C19" si="3">SUMIF($B$2:$B$14,$A19,C$2:C$14)</f>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f>SUM(B19:C19)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:C20" si="4">SUMIF($B$2:$B$14,$A20,C$2:C$14)</f>
+        <v>18.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>SUM(B20:C20)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:C21" si="5">SUMIF($B$2:$B$14,$A21,C$2:C$14)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>SUM(B21:C21)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10460,7 +10427,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -10560,7 +10527,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -11459,7 +11426,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -11499,7 +11466,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -11828,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11842,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11856,7 +11823,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11966,7 +11933,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -12006,7 +11973,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -12339,7 +12306,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12355,10 +12322,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
